--- a/cropped_and_labeled_image_data/2014_cropped_and_labeled_figs.xlsx
+++ b/cropped_and_labeled_image_data/2014_cropped_and_labeled_figs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,6 +480,1597 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Ashforth &amp; Reingen_2014_ASQ_Functions of Dysfunction - Managing the Dynamics of an Organizational Duality in a Natural Food Cooperative.pdf</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>F1_P29_Ashforth &amp; Reingen_2014_ASQ_Functions of Dysfunction - Managing the Dynamics of an Organizational Duality in a Natural Food Cooperative.png</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2014</v>
+      </c>
+      <c r="E2" t="n">
+        <v>30</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-90</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>final_figures/2014/F1_P29_Ashforth &amp; Reingen_2014_ASQ_Functions of Dysfunction - Managing the Dynamics of an Organizational Duality in a Natural Food Cooperative.png</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>none selected</t>
+        </is>
+      </c>
+      <c r="I2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Bertels, Hoffman &amp; DeJordy_2014_OrgStudies_The Varied Work of Challenger Movements - Identifying Challenger Roles in the US Environmental Movement.pdf</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>F2_P29_Bertels, Hoffman &amp; DeJordy_2014_OrgStudies_The Varied Work of Challenger Movements - Identifying Challenger Roles in the US Environmental Movement.png</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2014</v>
+      </c>
+      <c r="E3" t="n">
+        <v>30</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>final_figures/2014/F2_P29_Bertels, Hoffman &amp; DeJordy_2014_OrgStudies_The Varied Work of Challenger Movements - Identifying Challenger Roles in the US Environmental Movement.png</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>drawing</t>
+        </is>
+      </c>
+      <c r="I3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Bertels, Hoffman &amp; DeJordy_2014_OrgStudies_The Varied Work of Challenger Movements - Identifying Challenger Roles in the US Environmental Movement.pdf</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>F3_P29_Bertels, Hoffman &amp; DeJordy_2014_OrgStudies_The Varied Work of Challenger Movements - Identifying Challenger Roles in the US Environmental Movement.png</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2014</v>
+      </c>
+      <c r="E4" t="n">
+        <v>30</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>final_figures/2014/F3_P29_Bertels, Hoffman &amp; DeJordy_2014_OrgStudies_The Varied Work of Challenger Movements - Identifying Challenger Roles in the US Environmental Movement.png</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>conceptual diagram</t>
+        </is>
+      </c>
+      <c r="I4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Cramton &amp; Hinds_2014_OrgSci_An Embedded Model of Cultural Adaptation in Global Teams.pdf</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>F1_P8_Cramton &amp; Hinds_2014_OrgSci_An Embedded Model of Cultural Adaptation in Global Teams.png</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2014</v>
+      </c>
+      <c r="E5" t="n">
+        <v>9</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>final_figures/2014/F1_P8_Cramton &amp; Hinds_2014_OrgSci_An Embedded Model of Cultural Adaptation in Global Teams.png</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>conceptual diagram</t>
+        </is>
+      </c>
+      <c r="I5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Cramton &amp; Hinds_2014_OrgSci_An Embedded Model of Cultural Adaptation in Global Teams.pdf</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>F2_P11_Cramton &amp; Hinds_2014_OrgSci_An Embedded Model of Cultural Adaptation in Global Teams.png</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2014</v>
+      </c>
+      <c r="E6" t="n">
+        <v>12</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>final_figures/2014/F2_P11_Cramton &amp; Hinds_2014_OrgSci_An Embedded Model of Cultural Adaptation in Global Teams.png</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>conceptual diagram</t>
+        </is>
+      </c>
+      <c r="I6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Cramton &amp; Hinds_2014_OrgSci_An Embedded Model of Cultural Adaptation in Global Teams.pdf</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>F3_P13_Cramton &amp; Hinds_2014_OrgSci_An Embedded Model of Cultural Adaptation in Global Teams.png</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2014</v>
+      </c>
+      <c r="E7" t="n">
+        <v>14</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>final_figures/2014/F3_P13_Cramton &amp; Hinds_2014_OrgSci_An Embedded Model of Cultural Adaptation in Global Teams.png</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>conceptual diagram</t>
+        </is>
+      </c>
+      <c r="I7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Cramton &amp; Hinds_2014_OrgSci_An Embedded Model of Cultural Adaptation in Global Teams.pdf</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>F4_P16_Cramton &amp; Hinds_2014_OrgSci_An Embedded Model of Cultural Adaptation in Global Teams.png</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2014</v>
+      </c>
+      <c r="E8" t="n">
+        <v>17</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>final_figures/2014/F4_P16_Cramton &amp; Hinds_2014_OrgSci_An Embedded Model of Cultural Adaptation in Global Teams.png</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>process diagram</t>
+        </is>
+      </c>
+      <c r="I8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Cramton &amp; Hinds_2014_OrgSci_An Embedded Model of Cultural Adaptation in Global Teams.pdf</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>F5_P18_Cramton &amp; Hinds_2014_OrgSci_An Embedded Model of Cultural Adaptation in Global Teams.png</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>5</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2014</v>
+      </c>
+      <c r="E9" t="n">
+        <v>19</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>final_figures/2014/F5_P18_Cramton &amp; Hinds_2014_OrgSci_An Embedded Model of Cultural Adaptation in Global Teams.png</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>conceptual diagram</t>
+        </is>
+      </c>
+      <c r="I9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Cramton &amp; Hinds_2014_OrgSci_An Embedded Model of Cultural Adaptation in Global Teams.pdf</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>F6_P19_Cramton &amp; Hinds_2014_OrgSci_An Embedded Model of Cultural Adaptation in Global Teams.png</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>6</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2014</v>
+      </c>
+      <c r="E10" t="n">
+        <v>20</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>final_figures/2014/F6_P19_Cramton &amp; Hinds_2014_OrgSci_An Embedded Model of Cultural Adaptation in Global Teams.png</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>process diagram</t>
+        </is>
+      </c>
+      <c r="I10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>D'Adderio_2014_OrgSci_The Replication Dilemma Unravelled.pdf</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>F2_P19_D'Adderio_2014_OrgSci_The Replication Dilemma Unravelled.png</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2014</v>
+      </c>
+      <c r="E11" t="n">
+        <v>20</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>final_figures/2014/F2_P19_D'Adderio_2014_OrgSci_The Replication Dilemma Unravelled.png</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>conceptual diagram</t>
+        </is>
+      </c>
+      <c r="I11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>DiBenigno &amp; Kellogg_2014_ASQ_Beyond Occupational Differences.pdf</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>F1_P25_DiBenigno &amp; Kellogg_2014_ASQ_Beyond Occupational Differences.png</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2014</v>
+      </c>
+      <c r="E12" t="n">
+        <v>26</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-90</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>final_figures/2014/F1_P25_DiBenigno &amp; Kellogg_2014_ASQ_Beyond Occupational Differences.png</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>process diagram</t>
+        </is>
+      </c>
+      <c r="I12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Dye et al._2014_OrgSci_Tradeoffs in a Tempest.pdf</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>F1_P2_Dye et al._2014_OrgSci_Tradeoffs in a Tempest.png</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2014</v>
+      </c>
+      <c r="E13" t="n">
+        <v>3</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>final_figures/2014/F1_P2_Dye et al._2014_OrgSci_Tradeoffs in a Tempest.png</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>conceptual diagram</t>
+        </is>
+      </c>
+      <c r="I13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Dye et al._2014_OrgSci_Tradeoffs in a Tempest.pdf</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>F2_P3_Dye et al._2014_OrgSci_Tradeoffs in a Tempest.png</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>2</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2014</v>
+      </c>
+      <c r="E14" t="n">
+        <v>4</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>final_figures/2014/F2_P3_Dye et al._2014_OrgSci_Tradeoffs in a Tempest.png</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>2x2 matrix</t>
+        </is>
+      </c>
+      <c r="I14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Dye et al._2014_OrgSci_Tradeoffs in a Tempest.pdf</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>F2_P4_Dye et al._2014_OrgSci_Tradeoffs in a Tempest.png</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2014</v>
+      </c>
+      <c r="E15" t="n">
+        <v>5</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>final_figures/2014/F2_P4_Dye et al._2014_OrgSci_Tradeoffs in a Tempest.png</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>line graph</t>
+        </is>
+      </c>
+      <c r="I15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Dye et al._2014_OrgSci_Tradeoffs in a Tempest.pdf</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>F4_P7_Dye et al._2014_OrgSci_Tradeoffs in a Tempest.png</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>4</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2014</v>
+      </c>
+      <c r="E16" t="n">
+        <v>8</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>final_figures/2014/F4_P7_Dye et al._2014_OrgSci_Tradeoffs in a Tempest.png</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>process diagram</t>
+        </is>
+      </c>
+      <c r="I16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Glaser_2014_AMJ_Design Performances How Organizations Inscribe Artifacts to Change Routines.pdf</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>F1_P7_Glaser_2014_AMJ_Design Performances How Organizations Inscribe Artifacts to Change Routines.png</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2014</v>
+      </c>
+      <c r="E17" t="n">
+        <v>8</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>final_figures/2014/F1_P7_Glaser_2014_AMJ_Design Performances How Organizations Inscribe Artifacts to Change Routines.png</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>data structure</t>
+        </is>
+      </c>
+      <c r="I17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Glaser_2014_AMJ_Design Performances How Organizations Inscribe Artifacts to Change Routines.pdf</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>F2_P8_Glaser_2014_AMJ_Design Performances How Organizations Inscribe Artifacts to Change Routines.png</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>2</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2014</v>
+      </c>
+      <c r="E18" t="n">
+        <v>9</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>final_figures/2014/F2_P8_Glaser_2014_AMJ_Design Performances How Organizations Inscribe Artifacts to Change Routines.png</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>process diagram</t>
+        </is>
+      </c>
+      <c r="I18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Grant, Berg &amp; Cable_2014_AMJ_Job Titles as Identity Badges.pdf</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>F2_P13_Grant, Berg &amp; Cable_2014_AMJ_Job Titles as Identity Badges.png</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>2</v>
+      </c>
+      <c r="D19" t="n">
+        <v>2014</v>
+      </c>
+      <c r="E19" t="n">
+        <v>14</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>final_figures/2014/F2_P13_Grant, Berg &amp; Cable_2014_AMJ_Job Titles as Identity Badges.png</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>table</t>
+        </is>
+      </c>
+      <c r="I19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Harrison &amp; Rouse_2014_AMJ_Let's Dance.pdf</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>F2_P9_Harrison &amp; Rouse_2014_AMJ_Let's Dance.png</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>2</v>
+      </c>
+      <c r="D20" t="n">
+        <v>2014</v>
+      </c>
+      <c r="E20" t="n">
+        <v>10</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>final_figures/2014/F2_P9_Harrison &amp; Rouse_2014_AMJ_Let's Dance.png</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>data structure</t>
+        </is>
+      </c>
+      <c r="I20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Harrison &amp; Rouse_2014_AMJ_Let's Dance.pdf</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>F3_P16_Harrison &amp; Rouse_2014_AMJ_Let's Dance.png</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>3</v>
+      </c>
+      <c r="D21" t="n">
+        <v>2014</v>
+      </c>
+      <c r="E21" t="n">
+        <v>17</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>final_figures/2014/F3_P16_Harrison &amp; Rouse_2014_AMJ_Let's Dance.png</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>cycle</t>
+        </is>
+      </c>
+      <c r="I21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Helms  &amp; Patterson_2014_AMJ_Eliciting Acceptance for Illicit Organizations.pdf</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>F1_P5_Helms  &amp; Patterson_2014_AMJ_Eliciting Acceptance for Illicit Organizations.png</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="n">
+        <v>2014</v>
+      </c>
+      <c r="E22" t="n">
+        <v>6</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>final_figures/2014/F1_P5_Helms  &amp; Patterson_2014_AMJ_Eliciting Acceptance for Illicit Organizations.png</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>line graph</t>
+        </is>
+      </c>
+      <c r="I22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Helms  &amp; Patterson_2014_AMJ_Eliciting Acceptance for Illicit Organizations.pdf</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>F2_P25_Helms  &amp; Patterson_2014_AMJ_Eliciting Acceptance for Illicit Organizations.png</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>2</v>
+      </c>
+      <c r="D23" t="n">
+        <v>2014</v>
+      </c>
+      <c r="E23" t="n">
+        <v>26</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>final_figures/2014/F2_P25_Helms  &amp; Patterson_2014_AMJ_Eliciting Acceptance for Illicit Organizations.png</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>process diagram</t>
+        </is>
+      </c>
+      <c r="I23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Huy, Corley &amp; Kraatz_2014_AMJ_From Support to Mutiny.pdf</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>F2_P11_Huy, Corley &amp; Kraatz_2014_AMJ_From Support to Mutiny.png</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>2</v>
+      </c>
+      <c r="D24" t="n">
+        <v>2014</v>
+      </c>
+      <c r="E24" t="n">
+        <v>12</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>final_figures/2014/F2_P11_Huy, Corley &amp; Kraatz_2014_AMJ_From Support to Mutiny.png</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>table</t>
+        </is>
+      </c>
+      <c r="I24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Huy, Corley &amp; Kraatz_2014_AMJ_From Support to Mutiny.pdf</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>F3_P21_Huy, Corley &amp; Kraatz_2014_AMJ_From Support to Mutiny.png</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>3</v>
+      </c>
+      <c r="D25" t="n">
+        <v>2014</v>
+      </c>
+      <c r="E25" t="n">
+        <v>22</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>final_figures/2014/F3_P21_Huy, Corley &amp; Kraatz_2014_AMJ_From Support to Mutiny.png</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>process diagram</t>
+        </is>
+      </c>
+      <c r="I25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>LAndau, Drori &amp; Terjesen_2014_HR_Multiple legitimacy narratives and planned organizational change.pdf</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>F2_P9_LAndau, Drori &amp; Terjesen_2014_HR_Multiple legitimacy narratives and planned organizational change.png</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>2</v>
+      </c>
+      <c r="D26" t="n">
+        <v>2014</v>
+      </c>
+      <c r="E26" t="n">
+        <v>10</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>final_figures/2014/F2_P9_LAndau, Drori &amp; Terjesen_2014_HR_Multiple legitimacy narratives and planned organizational change.png</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>timeline</t>
+        </is>
+      </c>
+      <c r="I26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>LAndau, Drori &amp; Terjesen_2014_HR_Multiple legitimacy narratives and planned organizational change.pdf</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>F3_P11_LAndau, Drori &amp; Terjesen_2014_HR_Multiple legitimacy narratives and planned organizational change.png</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>3</v>
+      </c>
+      <c r="D27" t="n">
+        <v>2014</v>
+      </c>
+      <c r="E27" t="n">
+        <v>12</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>final_figures/2014/F3_P11_LAndau, Drori &amp; Terjesen_2014_HR_Multiple legitimacy narratives and planned organizational change.png</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>data structure</t>
+        </is>
+      </c>
+      <c r="I27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>McKendrick &amp; Hannan_2014_OrgSci_Oppositional Identities and Resource Partitioning.pdf</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>F1_P2_McKendrick &amp; Hannan_2014_OrgSci_Oppositional Identities and Resource Partitioning.png</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" t="n">
+        <v>2014</v>
+      </c>
+      <c r="E28" t="n">
+        <v>3</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>final_figures/2014/F1_P2_McKendrick &amp; Hannan_2014_OrgSci_Oppositional Identities and Resource Partitioning.png</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>line graph</t>
+        </is>
+      </c>
+      <c r="I28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>McKendrick &amp; Hannan_2014_OrgSci_Oppositional Identities and Resource Partitioning.pdf</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>F2_P11_McKendrick &amp; Hannan_2014_OrgSci_Oppositional Identities and Resource Partitioning.png</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>2</v>
+      </c>
+      <c r="D29" t="n">
+        <v>2014</v>
+      </c>
+      <c r="E29" t="n">
+        <v>12</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>final_figures/2014/F2_P11_McKendrick &amp; Hannan_2014_OrgSci_Oppositional Identities and Resource Partitioning.png</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>line graph</t>
+        </is>
+      </c>
+      <c r="I29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Mol &amp; Birkinshaw_2014_OrgStudies_The Role of External Involvement in the Creation of Management Innovations.pdf</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>F1_P6_Mol &amp; Birkinshaw_2014_OrgStudies_The Role of External Involvement in the Creation of Management Innovations.png</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" t="n">
+        <v>2014</v>
+      </c>
+      <c r="E30" t="n">
+        <v>7</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>final_figures/2014/F1_P6_Mol &amp; Birkinshaw_2014_OrgStudies_The Role of External Involvement in the Creation of Management Innovations.png</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>2x2 matrix</t>
+        </is>
+      </c>
+      <c r="I30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Radcliffe &amp; Cassell_2014_HR_Resolving Couples' Work-Family Conflicts.pdf</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>F1_P20_Radcliffe &amp; Cassell_2014_HR_Resolving Couples' Work-Family Conflicts.png</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" t="n">
+        <v>2014</v>
+      </c>
+      <c r="E31" t="n">
+        <v>21</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>final_figures/2014/F1_P20_Radcliffe &amp; Cassell_2014_HR_Resolving Couples' Work-Family Conflicts.png</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>conceptual diagram</t>
+        </is>
+      </c>
+      <c r="I31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Radcliffe &amp; Cassell_2014_HR_Resolving Couples' Work-Family Conflicts.pdf</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>F2_P21_Radcliffe &amp; Cassell_2014_HR_Resolving Couples' Work-Family Conflicts.png</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>2</v>
+      </c>
+      <c r="D32" t="n">
+        <v>2014</v>
+      </c>
+      <c r="E32" t="n">
+        <v>22</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>final_figures/2014/F2_P21_Radcliffe &amp; Cassell_2014_HR_Resolving Couples' Work-Family Conflicts.png</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>hierarchical diagram</t>
+        </is>
+      </c>
+      <c r="I32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Radcliffe &amp; Cassell_2014_HR_Resolving Couples' Work-Family Conflicts.pdf</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>F3_P22_Radcliffe &amp; Cassell_2014_HR_Resolving Couples' Work-Family Conflicts.png</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>3</v>
+      </c>
+      <c r="D33" t="n">
+        <v>2014</v>
+      </c>
+      <c r="E33" t="n">
+        <v>23</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>final_figures/2014/F3_P22_Radcliffe &amp; Cassell_2014_HR_Resolving Couples' Work-Family Conflicts.png</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>conceptual diagram</t>
+        </is>
+      </c>
+      <c r="I33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Silva et al._2014_HR_Smells like team spirit.pdf</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>F1_P6_Silva et al._2014_HR_Smells like team spirit.png</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" t="n">
+        <v>2014</v>
+      </c>
+      <c r="E34" t="n">
+        <v>7</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>final_figures/2014/F1_P6_Silva et al._2014_HR_Smells like team spirit.png</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>data structure</t>
+        </is>
+      </c>
+      <c r="I34" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Smith_2014_AMJ_Dynamic Decision Making A Model of Senior Leaders Managing Strategic Paradoxes.pdf</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>F2_P14_Smith_2014_AMJ_Dynamic Decision Making A Model of Senior Leaders Managing Strategic Paradoxes.png</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>2</v>
+      </c>
+      <c r="D35" t="n">
+        <v>2014</v>
+      </c>
+      <c r="E35" t="n">
+        <v>15</v>
+      </c>
+      <c r="F35" t="n">
+        <v>-90</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>final_figures/2014/F2_P14_Smith_2014_AMJ_Dynamic Decision Making A Model of Senior Leaders Managing Strategic Paradoxes.png</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>process diagram</t>
+        </is>
+      </c>
+      <c r="I35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Sonenshein_2014_AMJ_How Organizations Foster the Creative Use of Resources.pdf</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>F2_P22_Sonenshein_2014_AMJ_How Organizations Foster the Creative Use of Resources.png</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>2</v>
+      </c>
+      <c r="D36" t="n">
+        <v>2014</v>
+      </c>
+      <c r="E36" t="n">
+        <v>23</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>final_figures/2014/F2_P22_Sonenshein_2014_AMJ_How Organizations Foster the Creative Use of Resources.png</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>process diagram</t>
+        </is>
+      </c>
+      <c r="I36" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Srikanth &amp; Puranam_2014_OrgSci_The Firm as a Coordination System.pdf</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>F1_P4_Srikanth &amp; Puranam_2014_OrgSci_The Firm as a Coordination System.png</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>1</v>
+      </c>
+      <c r="D37" t="n">
+        <v>2014</v>
+      </c>
+      <c r="E37" t="n">
+        <v>5</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>final_figures/2014/F1_P4_Srikanth &amp; Puranam_2014_OrgSci_The Firm as a Coordination System.png</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>2x2 matrix</t>
+        </is>
+      </c>
+      <c r="I37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Srikanth &amp; Puranam_2014_OrgSci_The Firm as a Coordination System.pdf</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>F2_P7_Srikanth &amp; Puranam_2014_OrgSci_The Firm as a Coordination System.png</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>2</v>
+      </c>
+      <c r="D38" t="n">
+        <v>2014</v>
+      </c>
+      <c r="E38" t="n">
+        <v>8</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>final_figures/2014/F2_P7_Srikanth &amp; Puranam_2014_OrgSci_The Firm as a Coordination System.png</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>2x2 matrix</t>
+        </is>
+      </c>
+      <c r="I38" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Vaujany &amp; Vaast_2014_OrgSci_If These Walls Could Talk.pdf</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>F1_P3_Vaujany &amp; Vaast_2014_OrgSci_If These Walls Could Talk.png</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" t="n">
+        <v>2014</v>
+      </c>
+      <c r="E39" t="n">
+        <v>4</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>final_figures/2014/F1_P3_Vaujany &amp; Vaast_2014_OrgSci_If These Walls Could Talk.png</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>photo</t>
+        </is>
+      </c>
+      <c r="I39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Vaujany &amp; Vaast_2014_OrgSci_If These Walls Could Talk.pdf</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>F2_P3_Vaujany &amp; Vaast_2014_OrgSci_If These Walls Could Talk.png</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>2</v>
+      </c>
+      <c r="D40" t="n">
+        <v>2014</v>
+      </c>
+      <c r="E40" t="n">
+        <v>4</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>final_figures/2014/F2_P3_Vaujany &amp; Vaast_2014_OrgSci_If These Walls Could Talk.png</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>photo</t>
+        </is>
+      </c>
+      <c r="I40" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Vaujany &amp; Vaast_2014_OrgSci_If These Walls Could Talk.pdf</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>F3_P8_Vaujany &amp; Vaast_2014_OrgSci_If These Walls Could Talk.png</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>3</v>
+      </c>
+      <c r="D41" t="n">
+        <v>2014</v>
+      </c>
+      <c r="E41" t="n">
+        <v>9</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>final_figures/2014/F3_P8_Vaujany &amp; Vaast_2014_OrgSci_If These Walls Could Talk.png</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>drawing</t>
+        </is>
+      </c>
+      <c r="I41" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Vaujany &amp; Vaast_2014_OrgSci_If These Walls Could Talk.pdf</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>F4_P10_Vaujany &amp; Vaast_2014_OrgSci_If These Walls Could Talk.png</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>4</v>
+      </c>
+      <c r="D42" t="n">
+        <v>2014</v>
+      </c>
+      <c r="E42" t="n">
+        <v>11</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>final_figures/2014/F4_P10_Vaujany &amp; Vaast_2014_OrgSci_If These Walls Could Talk.png</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>photo</t>
+        </is>
+      </c>
+      <c r="I42" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Vaujany &amp; Vaast_2014_OrgSci_If These Walls Could Talk.pdf</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>F5_P11_Vaujany &amp; Vaast_2014_OrgSci_If These Walls Could Talk.png</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>5</v>
+      </c>
+      <c r="D43" t="n">
+        <v>2014</v>
+      </c>
+      <c r="E43" t="n">
+        <v>12</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>final_figures/2014/F5_P11_Vaujany &amp; Vaast_2014_OrgSci_If These Walls Could Talk.png</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>photo</t>
+        </is>
+      </c>
+      <c r="I43" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Vaujany &amp; Vaast_2014_OrgSci_If These Walls Could Talk.pdf</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>F6_P13_Vaujany &amp; Vaast_2014_OrgSci_If These Walls Could Talk.png</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>6</v>
+      </c>
+      <c r="D44" t="n">
+        <v>2014</v>
+      </c>
+      <c r="E44" t="n">
+        <v>14</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>final_figures/2014/F6_P13_Vaujany &amp; Vaast_2014_OrgSci_If These Walls Could Talk.png</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>conceptual diagram</t>
+        </is>
+      </c>
+      <c r="I44" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/cropped_and_labeled_image_data/2014_cropped_and_labeled_figs.xlsx
+++ b/cropped_and_labeled_image_data/2014_cropped_and_labeled_figs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I44"/>
+  <dimension ref="A1:I55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -510,7 +510,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>none selected</t>
+          <t>cycle</t>
         </is>
       </c>
       <c r="I2" t="b">
@@ -2068,6 +2068,413 @@
         </is>
       </c>
       <c r="I44" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Bertels, Hoffman &amp; DeJordy_2014_OrgStudies_The Varied Work of Challenger Movements - Identifying Challenger Roles in the US Environmental Movement.pdf</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>F1_P17_Bertels, Hoffman &amp; DeJordy_2014_OrgStudies_The Varied Work of Challenger Movements - Identifying Challenger Roles in the US Environmental Movement.png</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>1</v>
+      </c>
+      <c r="D45" t="n">
+        <v>2014</v>
+      </c>
+      <c r="E45" t="n">
+        <v>18</v>
+      </c>
+      <c r="F45" t="n">
+        <v>-90</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>final_figures/2014/F1_P17_Bertels, Hoffman &amp; DeJordy_2014_OrgStudies_The Varied Work of Challenger Movements - Identifying Challenger Roles in the US Environmental Movement.png</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>conceptual diagram</t>
+        </is>
+      </c>
+      <c r="I45" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>D'Adderio_2014_OrgSci_The Replication Dilemma Unravelled.pdf</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>F1_P6_D'Adderio_2014_OrgSci_The Replication Dilemma Unravelled.png</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>1</v>
+      </c>
+      <c r="D46" t="n">
+        <v>2014</v>
+      </c>
+      <c r="E46" t="n">
+        <v>7</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>final_figures/2014/F1_P6_D'Adderio_2014_OrgSci_The Replication Dilemma Unravelled.png</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>data structure</t>
+        </is>
+      </c>
+      <c r="I46" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Grant, Berg &amp; Cable_2014_AMJ_Job Titles as Identity Badges.pdf</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>F1_P5_Grant, Berg &amp; Cable_2014_AMJ_Job Titles as Identity Badges.png</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>1</v>
+      </c>
+      <c r="D47" t="n">
+        <v>2014</v>
+      </c>
+      <c r="E47" t="n">
+        <v>6</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>final_figures/2014/F1_P5_Grant, Berg &amp; Cable_2014_AMJ_Job Titles as Identity Badges.png</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>data structure</t>
+        </is>
+      </c>
+      <c r="I47" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Harrison &amp; Rouse_2014_AMJ_Let's Dance.pdf</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>F1_P7_Harrison &amp; Rouse_2014_AMJ_Let's Dance.png</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>1</v>
+      </c>
+      <c r="D48" t="n">
+        <v>2014</v>
+      </c>
+      <c r="E48" t="n">
+        <v>8</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>final_figures/2014/F1_P7_Harrison &amp; Rouse_2014_AMJ_Let's Dance.png</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>data structure</t>
+        </is>
+      </c>
+      <c r="I48" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Hinds &amp; Cramton_2014_OrgSci_Situated Coworker Familiarity How Site Visits Transform Relationships among Distributed Workers.pdf</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>F1_P7_Hinds &amp; Cramton_2014_OrgSci_Situated Coworker Familiarity How Site Visits Transform Relationships among Distributed Workers.png</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>1</v>
+      </c>
+      <c r="D49" t="n">
+        <v>2014</v>
+      </c>
+      <c r="E49" t="n">
+        <v>8</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>final_figures/2014/F1_P7_Hinds &amp; Cramton_2014_OrgSci_Situated Coworker Familiarity How Site Visits Transform Relationships among Distributed Workers.png</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>process diagram</t>
+        </is>
+      </c>
+      <c r="I49" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Huy, Corley &amp; Kraatz_2014_AMJ_From Support to Mutiny.pdf</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>F1_P10_Huy, Corley &amp; Kraatz_2014_AMJ_From Support to Mutiny.png</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>1</v>
+      </c>
+      <c r="D50" t="n">
+        <v>2014</v>
+      </c>
+      <c r="E50" t="n">
+        <v>11</v>
+      </c>
+      <c r="F50" t="n">
+        <v>-90</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>final_figures/2014/F1_P10_Huy, Corley &amp; Kraatz_2014_AMJ_From Support to Mutiny.png</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>data structure</t>
+        </is>
+      </c>
+      <c r="I50" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Koerner_2014_AMJ_Courage as Identity Work.pdf</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>F1_P17_Koerner_2014_AMJ_Courage as Identity Work.png</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>1</v>
+      </c>
+      <c r="D51" t="n">
+        <v>2014</v>
+      </c>
+      <c r="E51" t="n">
+        <v>18</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>final_figures/2014/F1_P17_Koerner_2014_AMJ_Courage as Identity Work.png</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>process diagram</t>
+        </is>
+      </c>
+      <c r="I51" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Lockett et al._2014_AMJ_The Influence of Social Position on Sensemaking.pdf</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>F1_P17_Lockett et al._2014_AMJ_The Influence of Social Position on Sensemaking.png</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>1</v>
+      </c>
+      <c r="D52" t="n">
+        <v>2014</v>
+      </c>
+      <c r="E52" t="n">
+        <v>18</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>final_figures/2014/F1_P17_Lockett et al._2014_AMJ_The Influence of Social Position on Sensemaking.png</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>conceptual diagram</t>
+        </is>
+      </c>
+      <c r="I52" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Noonan Hadley_2014_HR_Emotional Roulette Symmetrical and asymmetrical emotion regulation outcomes.pdf</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>F1_P10_Noonan Hadley_2014_HR_Emotional Roulette Symmetrical and asymmetrical emotion regulation outcomes.png</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>1</v>
+      </c>
+      <c r="D53" t="n">
+        <v>2014</v>
+      </c>
+      <c r="E53" t="n">
+        <v>11</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>final_figures/2014/F1_P10_Noonan Hadley_2014_HR_Emotional Roulette Symmetrical and asymmetrical emotion regulation outcomes.png</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>2x2 matrix</t>
+        </is>
+      </c>
+      <c r="I53" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Sonenshein, DeCelles &amp; Dutton_2014_AMJ_It's Not Easy Being Green.pdf</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>F1_P7_Sonenshein, DeCelles &amp; Dutton_2014_AMJ_It's Not Easy Being Green.png</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>1</v>
+      </c>
+      <c r="D54" t="n">
+        <v>2014</v>
+      </c>
+      <c r="E54" t="n">
+        <v>8</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>final_figures/2014/F1_P7_Sonenshein, DeCelles &amp; Dutton_2014_AMJ_It's Not Easy Being Green.png</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>data structure</t>
+        </is>
+      </c>
+      <c r="I54" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Sonenshein_2014_AMJ_How Organizations Foster the Creative Use of Resources.pdf</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>F1_P7_Sonenshein_2014_AMJ_How Organizations Foster the Creative Use of Resources.png</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>1</v>
+      </c>
+      <c r="D55" t="n">
+        <v>2014</v>
+      </c>
+      <c r="E55" t="n">
+        <v>8</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>final_figures/2014/F1_P7_Sonenshein_2014_AMJ_How Organizations Foster the Creative Use of Resources.png</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>data structure</t>
+        </is>
+      </c>
+      <c r="I55" t="b">
         <v>1</v>
       </c>
     </row>

--- a/cropped_and_labeled_image_data/2014_cropped_and_labeled_figs.xlsx
+++ b/cropped_and_labeled_image_data/2014_cropped_and_labeled_figs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I55"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,11 +474,6 @@
           <t>subcategory</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>is_viewed</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -513,9 +508,6 @@
           <t>cycle</t>
         </is>
       </c>
-      <c r="I2" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -547,11 +539,8 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>drawing</t>
-        </is>
-      </c>
-      <c r="I3" t="b">
-        <v>1</v>
+          <t>drawing(s)</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -587,9 +576,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I4" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -624,9 +610,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I5" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -661,9 +644,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I6" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -698,9 +678,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I7" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -735,9 +712,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I8" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -772,9 +746,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I9" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -809,9 +780,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I10" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -846,9 +814,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I11" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -883,9 +848,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I12" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -920,9 +882,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I13" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -957,9 +916,6 @@
           <t>2x2 matrix</t>
         </is>
       </c>
-      <c r="I14" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -991,11 +947,8 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>line graph</t>
-        </is>
-      </c>
-      <c r="I15" t="b">
-        <v>1</v>
+          <t>line graph(s)</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -1031,9 +984,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I16" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1068,9 +1018,6 @@
           <t>data structure</t>
         </is>
       </c>
-      <c r="I17" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1105,9 +1052,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I18" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1142,9 +1086,6 @@
           <t>table</t>
         </is>
       </c>
-      <c r="I19" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1179,9 +1120,6 @@
           <t>data structure</t>
         </is>
       </c>
-      <c r="I20" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1216,9 +1154,6 @@
           <t>cycle</t>
         </is>
       </c>
-      <c r="I21" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1250,11 +1185,8 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>line graph</t>
-        </is>
-      </c>
-      <c r="I22" t="b">
-        <v>1</v>
+          <t>line graph(s)</t>
+        </is>
       </c>
     </row>
     <row r="23">
@@ -1290,9 +1222,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I23" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1327,9 +1256,6 @@
           <t>table</t>
         </is>
       </c>
-      <c r="I24" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1364,9 +1290,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I25" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1401,9 +1324,6 @@
           <t>timeline</t>
         </is>
       </c>
-      <c r="I26" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1438,9 +1358,6 @@
           <t>data structure</t>
         </is>
       </c>
-      <c r="I27" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1472,11 +1389,8 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>line graph</t>
-        </is>
-      </c>
-      <c r="I28" t="b">
-        <v>1</v>
+          <t>line graph(s)</t>
+        </is>
       </c>
     </row>
     <row r="29">
@@ -1509,11 +1423,8 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>line graph</t>
-        </is>
-      </c>
-      <c r="I29" t="b">
-        <v>1</v>
+          <t>line graph(s)</t>
+        </is>
       </c>
     </row>
     <row r="30">
@@ -1549,9 +1460,6 @@
           <t>2x2 matrix</t>
         </is>
       </c>
-      <c r="I30" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1586,9 +1494,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I31" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1623,9 +1528,6 @@
           <t>hierarchical diagram</t>
         </is>
       </c>
-      <c r="I32" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1660,9 +1562,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I33" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1697,9 +1596,6 @@
           <t>data structure</t>
         </is>
       </c>
-      <c r="I34" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1734,9 +1630,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I35" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1771,9 +1664,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I36" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1808,9 +1698,6 @@
           <t>2x2 matrix</t>
         </is>
       </c>
-      <c r="I37" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1845,9 +1732,6 @@
           <t>2x2 matrix</t>
         </is>
       </c>
-      <c r="I38" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1879,11 +1763,8 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>photo</t>
-        </is>
-      </c>
-      <c r="I39" t="b">
-        <v>1</v>
+          <t>photo(s)</t>
+        </is>
       </c>
     </row>
     <row r="40">
@@ -1916,11 +1797,8 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>photo</t>
-        </is>
-      </c>
-      <c r="I40" t="b">
-        <v>1</v>
+          <t>photo(s)</t>
+        </is>
       </c>
     </row>
     <row r="41">
@@ -1953,11 +1831,8 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>drawing</t>
-        </is>
-      </c>
-      <c r="I41" t="b">
-        <v>1</v>
+          <t>drawing(s)</t>
+        </is>
       </c>
     </row>
     <row r="42">
@@ -1990,11 +1865,8 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>photo</t>
-        </is>
-      </c>
-      <c r="I42" t="b">
-        <v>1</v>
+          <t>photo(s)</t>
+        </is>
       </c>
     </row>
     <row r="43">
@@ -2027,11 +1899,8 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>photo</t>
-        </is>
-      </c>
-      <c r="I43" t="b">
-        <v>1</v>
+          <t>photo(s)</t>
+        </is>
       </c>
     </row>
     <row r="44">
@@ -2067,9 +1936,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I44" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2104,9 +1970,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I45" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2141,9 +2004,6 @@
           <t>data structure</t>
         </is>
       </c>
-      <c r="I46" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2175,11 +2035,8 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>data structure</t>
-        </is>
-      </c>
-      <c r="I47" t="b">
-        <v>1</v>
+          <t>data display</t>
+        </is>
       </c>
     </row>
     <row r="48">
@@ -2212,11 +2069,8 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>data structure</t>
-        </is>
-      </c>
-      <c r="I48" t="b">
-        <v>1</v>
+          <t>data collection, data analysis, data gathering diagram</t>
+        </is>
       </c>
     </row>
     <row r="49">
@@ -2252,9 +2106,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I49" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2289,9 +2140,6 @@
           <t>data structure</t>
         </is>
       </c>
-      <c r="I50" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2326,9 +2174,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I51" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2363,9 +2208,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I52" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2400,9 +2242,6 @@
           <t>2x2 matrix</t>
         </is>
       </c>
-      <c r="I53" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2437,9 +2276,6 @@
           <t>data structure</t>
         </is>
       </c>
-      <c r="I54" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2473,9 +2309,6 @@
         <is>
           <t>data structure</t>
         </is>
-      </c>
-      <c r="I55" t="b">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
